--- a/data/aio4.xlsx
+++ b/data/aio4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTML\HSPT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="A7fv3aPIg9kXm1RZqA9N18sy909iaj7gUjqX7q/o5+2aKKYftyCbJ7kro5KoYHHvOV3AAb9CT6FEvWG9yNr2AA==" workbookSaltValue="TFb/lUYUT7O2jB9XIowYqQ==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="nulo4uOn0g3qNRMoXOLH/g+qBXu8tT3yvXLy0L3v6dKKK+XLrTGCW9YaQf3RZZh77wiWhiUtxr3ERnLEL/uw8g==" workbookSaltValue="OWtFat0dj7NulBiOKjCZWw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19335" windowHeight="11235" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -1450,10 +1450,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A : &lt;ins&gt;Is everything clear?&lt;br&gt;= Are ________ me?&lt;br&gt;B : Yes. I understand.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>you with</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1898,6 +1894,10 @@
   </si>
   <si>
     <t>Keep in mind you should</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : &lt;ins&gt;Is everything clear?&lt;/ins&gt;&lt;br&gt;= Are ________ me?&lt;br&gt;B : Yes. I understand.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2296,8 +2296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4489,7 +4489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="33">
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>5</v>
       </c>
@@ -4756,22 +4756,22 @@
         <v>349</v>
       </c>
       <c r="D74" t="s">
+        <v>462</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G74" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="E74" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="F74" s="4" t="s">
+      <c r="H74" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="G74" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="H74" s="4" t="s">
+      <c r="I74" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>355</v>
       </c>
       <c r="J74" s="1">
         <v>3</v>
@@ -4785,13 +4785,13 @@
         <v>18</v>
       </c>
       <c r="C75" t="s">
+        <v>355</v>
+      </c>
+      <c r="D75" t="s">
         <v>356</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" s="4" t="s">
         <v>357</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>358</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>290</v>
@@ -4800,10 +4800,10 @@
         <v>344</v>
       </c>
       <c r="H75" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="I75" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="J75" s="1">
         <v>3</v>
@@ -4817,10 +4817,10 @@
         <v>18</v>
       </c>
       <c r="C76" t="s">
+        <v>360</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>362</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>301</v>
@@ -4829,13 +4829,13 @@
         <v>302</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>304</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J76" s="1">
         <v>3</v>
@@ -4849,25 +4849,25 @@
         <v>18</v>
       </c>
       <c r="C77" t="s">
+        <v>364</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="E77" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="F77" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="G77" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="H77" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="H77" s="4" t="s">
+      <c r="I77" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>371</v>
       </c>
       <c r="J77" s="1">
         <v>2</v>
@@ -4884,22 +4884,22 @@
         <v>17</v>
       </c>
       <c r="D78" t="s">
+        <v>371</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H78" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="E78" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="G78" s="4" t="s">
+      <c r="I78" s="4" t="s">
         <v>376</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>377</v>
       </c>
       <c r="J78" s="1">
         <v>4</v>
@@ -4913,25 +4913,25 @@
         <v>18</v>
       </c>
       <c r="C79" t="s">
+        <v>377</v>
+      </c>
+      <c r="D79" t="s">
         <v>378</v>
-      </c>
-      <c r="D79" t="s">
-        <v>379</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>293</v>
       </c>
       <c r="F79" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="G79" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="H79" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="H79" s="4" t="s">
+      <c r="I79" s="4" t="s">
         <v>382</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>383</v>
       </c>
       <c r="J79" s="1">
         <v>3</v>
@@ -4945,25 +4945,25 @@
         <v>18</v>
       </c>
       <c r="C80" t="s">
+        <v>383</v>
+      </c>
+      <c r="D80" t="s">
         <v>384</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="F80" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="G80" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="H80" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="I80" s="4" t="s">
         <v>389</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>390</v>
       </c>
       <c r="J80" s="1">
         <v>5</v>
@@ -4977,25 +4977,25 @@
         <v>18</v>
       </c>
       <c r="C81" t="s">
+        <v>390</v>
+      </c>
+      <c r="D81" t="s">
+        <v>384</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D81" t="s">
-        <v>385</v>
-      </c>
-      <c r="E81" s="4" t="s">
+      <c r="F81" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="G81" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="H81" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="I81" s="4" t="s">
         <v>395</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>396</v>
       </c>
       <c r="J81" s="1">
         <v>2</v>
@@ -5012,22 +5012,22 @@
         <v>14</v>
       </c>
       <c r="D82" t="s">
+        <v>396</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="F82" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="G82" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="H82" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="I82" s="4" t="s">
         <v>401</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>402</v>
       </c>
       <c r="J82" s="1">
         <v>3</v>
@@ -5041,25 +5041,25 @@
         <v>18</v>
       </c>
       <c r="C83" t="s">
+        <v>402</v>
+      </c>
+      <c r="D83" t="s">
         <v>403</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="F83" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="G83" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="H83" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="I83" s="4" t="s">
         <v>408</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>409</v>
       </c>
       <c r="J83" s="1">
         <v>4</v>
@@ -5073,25 +5073,25 @@
         <v>18</v>
       </c>
       <c r="C84" t="s">
+        <v>409</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="E84" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="F84" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="G84" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="F84" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="G84" s="9" t="s">
+      <c r="H84" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="H84" s="9" t="s">
+      <c r="I84" s="9" t="s">
         <v>415</v>
-      </c>
-      <c r="I84" s="9" t="s">
-        <v>416</v>
       </c>
       <c r="J84" s="1">
         <v>2</v>
@@ -5105,25 +5105,25 @@
         <v>18</v>
       </c>
       <c r="C85" t="s">
+        <v>416</v>
+      </c>
+      <c r="D85" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="E85" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="F85" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="G85" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="H85" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="I85" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="J85" s="1">
         <v>5</v>
@@ -5137,25 +5137,25 @@
         <v>18</v>
       </c>
       <c r="C86" t="s">
+        <v>423</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>424</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>425</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>290</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G86" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="H86" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="H86" s="4" t="s">
+      <c r="I86" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>428</v>
       </c>
       <c r="J86" s="1">
         <v>1</v>
@@ -5172,22 +5172,22 @@
         <v>17</v>
       </c>
       <c r="D87" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="H87" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="E87" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="G87" s="4" t="s">
+      <c r="I87" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>435</v>
       </c>
       <c r="J87" s="1">
         <v>4</v>
@@ -5201,25 +5201,25 @@
         <v>18</v>
       </c>
       <c r="C88" t="s">
+        <v>435</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="E88" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="F88" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="G88" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="H88" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="H88" s="4" t="s">
+      <c r="I88" s="4" t="s">
         <v>441</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>442</v>
       </c>
       <c r="J88" s="1">
         <v>5</v>
@@ -5236,22 +5236,22 @@
         <v>14</v>
       </c>
       <c r="D89" t="s">
+        <v>442</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="H89" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="E89" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="G89" s="4" t="s">
+      <c r="I89" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="J89" s="1">
         <v>3</v>
@@ -5265,25 +5265,25 @@
         <v>18</v>
       </c>
       <c r="C90" t="s">
+        <v>448</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="E90" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="F90" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="G90" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="G90" s="4" t="s">
+      <c r="H90" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="H90" s="4" t="s">
+      <c r="I90" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="J90" s="1">
         <v>2</v>
@@ -5297,25 +5297,25 @@
         <v>18</v>
       </c>
       <c r="C91" t="s">
+        <v>455</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="E91" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="F91" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="G91" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="H91" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="H91" s="4" t="s">
+      <c r="I91" s="4" t="s">
         <v>461</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>462</v>
       </c>
       <c r="J91" s="1">
         <v>3</v>
@@ -5333,7 +5333,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
